--- a/TestCases/ToBeAutomated/Participant.xlsx
+++ b/TestCases/ToBeAutomated/Participant.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="196">
   <si>
     <t>Scenario</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>Test to ensure that supervisor is not able to add participant with any other value for the  activity status as specified.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>13th April 2011</t>
   </si>
 </sst>
 </file>
@@ -707,16 +713,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -730,7 +727,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,12 +1035,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38" style="9" customWidth="1"/>
     <col min="3" max="3" width="53.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="47.85546875" bestFit="1" customWidth="1"/>
@@ -1047,7 +1055,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1056,27 +1064,27 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1094,8 +1102,8 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1113,8 +1121,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1132,8 +1140,8 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1146,13 +1154,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1165,13 +1175,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1184,18 +1196,20 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D8" s="2"/>
@@ -1210,11 +1224,11 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="2"/>
@@ -1229,15 +1243,15 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F10" s="2"/>
@@ -1248,15 +1262,15 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="30">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="2"/>
@@ -1267,15 +1281,15 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F12" s="2"/>
@@ -1286,15 +1300,15 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F13" s="2"/>
@@ -1305,14 +1319,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1326,8 +1340,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1347,8 +1361,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1368,8 +1382,8 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1389,8 +1403,8 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1410,8 +1424,8 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1431,8 +1445,8 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1452,8 +1466,8 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1473,8 +1487,8 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1494,14 +1508,14 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1515,14 +1529,14 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1536,8 +1550,8 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1557,8 +1571,8 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1578,8 +1592,8 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1599,8 +1613,8 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1620,8 +1634,8 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1641,8 +1655,8 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="5"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1662,8 +1676,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1683,14 +1697,14 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="45">
-      <c r="A32" s="5"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1704,8 +1718,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="45">
-      <c r="A33" s="5"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1725,14 +1739,14 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="45">
-      <c r="A34" s="5"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1746,14 +1760,14 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="45">
-      <c r="A35" s="5"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1767,8 +1781,8 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="45">
-      <c r="A36" s="5"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1788,14 +1802,14 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="45">
-      <c r="A37" s="5"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1809,12 +1823,12 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="45">
-      <c r="A38" s="5"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1828,14 +1842,14 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="30">
-      <c r="A39" s="5"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1849,12 +1863,12 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="45">
-      <c r="A40" s="5"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1868,14 +1882,14 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" ht="45">
-      <c r="A41" s="5"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -1889,12 +1903,12 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="60">
-      <c r="A42" s="5"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -1908,12 +1922,12 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" ht="45">
-      <c r="A43" s="5"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1927,14 +1941,14 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="45">
-      <c r="A44" s="5"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -1948,12 +1962,12 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1967,12 +1981,12 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="45">
-      <c r="A46" s="5"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -1986,14 +2000,14 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="45">
-      <c r="A47" s="5"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2007,12 +2021,12 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="45">
-      <c r="A48" s="5"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2026,12 +2040,12 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="45">
-      <c r="A49" s="5"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2045,12 +2059,12 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="60">
-      <c r="A50" s="5"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2064,14 +2078,14 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="45">
-      <c r="A51" s="5"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2085,12 +2099,12 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="5"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -2104,14 +2118,14 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" ht="45">
-      <c r="A53" s="5"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2125,12 +2139,12 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="45">
-      <c r="A54" s="5"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -2144,12 +2158,12 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" ht="60">
-      <c r="A55" s="13"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2163,10 +2177,10 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="45">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2184,8 +2198,8 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="45">
-      <c r="A57" s="5"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2203,8 +2217,8 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" ht="45">
-      <c r="A58" s="5"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2222,8 +2236,8 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" ht="60">
-      <c r="A59" s="5"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2241,8 +2255,8 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" ht="45">
-      <c r="A60" s="5"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2260,8 +2274,8 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="45">
-      <c r="A61" s="5"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2279,8 +2293,8 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" ht="60">
-      <c r="A62" s="5"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2298,8 +2312,8 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="45">
-      <c r="A63" s="5"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2317,8 +2331,8 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" ht="45">
-      <c r="A64" s="5"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2336,8 +2350,8 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" ht="45">
-      <c r="A65" s="5"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2355,8 +2369,8 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" ht="30">
-      <c r="A66" s="5"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2374,8 +2388,8 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" ht="45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2393,8 +2407,8 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" ht="45">
-      <c r="A68" s="5"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2412,8 +2426,8 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" ht="45">
-      <c r="A69" s="5"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2431,8 +2445,8 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" ht="30">
-      <c r="A70" s="5"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2450,8 +2464,8 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" ht="45">
-      <c r="A71" s="5"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2469,8 +2483,8 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" ht="45">
-      <c r="A72" s="5"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2490,8 +2504,8 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" ht="45">
-      <c r="A73" s="5"/>
-      <c r="B73" s="10" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2509,8 +2523,8 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" ht="45">
-      <c r="A74" s="5"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2528,8 +2542,8 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" ht="45">
-      <c r="A75" s="5"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2547,14 +2561,14 @@
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" ht="45">
-      <c r="A76" s="13"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="2" t="s">
         <v>98</v>
       </c>
@@ -2566,10 +2580,10 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" ht="45">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2587,8 +2601,8 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" ht="60">
-      <c r="A78" s="7"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="13"/>
+      <c r="B78" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2606,8 +2620,8 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" ht="45">
-      <c r="A79" s="7"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="13"/>
+      <c r="B79" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2625,8 +2639,8 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" ht="45">
-      <c r="A80" s="7"/>
-      <c r="B80" s="10" t="s">
+      <c r="A80" s="13"/>
+      <c r="B80" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2644,8 +2658,8 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" ht="45">
-      <c r="A81" s="7"/>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2663,8 +2677,8 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" ht="45">
-      <c r="A82" s="7"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="13"/>
+      <c r="B82" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2682,8 +2696,8 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" ht="45">
-      <c r="A83" s="7"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2701,8 +2715,8 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="45">
-      <c r="A84" s="7"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="13"/>
+      <c r="B84" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2720,8 +2734,8 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="45">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2739,8 +2753,8 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="60">
-      <c r="A86" s="7"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="13"/>
+      <c r="B86" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2758,8 +2772,8 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="45">
-      <c r="A87" s="7"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="13"/>
+      <c r="B87" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2777,8 +2791,8 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" ht="60">
-      <c r="A88" s="7"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="13"/>
+      <c r="B88" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2796,8 +2810,8 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" ht="60">
-      <c r="A89" s="7"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="13"/>
+      <c r="B89" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2815,8 +2829,8 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="45">
-      <c r="A90" s="7"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="13"/>
+      <c r="B90" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2834,15 +2848,15 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="45">
-      <c r="A91" s="7"/>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="13"/>
+      <c r="B91" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F91" s="2"/>
@@ -2853,15 +2867,15 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" ht="45">
-      <c r="A92" s="7"/>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="13"/>
+      <c r="B92" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F92" s="2"/>
@@ -2872,8 +2886,8 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" ht="45">
-      <c r="A93" s="7"/>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="13"/>
+      <c r="B93" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2891,8 +2905,8 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" ht="60">
-      <c r="A94" s="7"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="13"/>
+      <c r="B94" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2910,268 +2924,268 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" s="3" customFormat="1">
-      <c r="B95" s="11"/>
+      <c r="B95" s="8"/>
     </row>
     <row r="96" spans="1:9" s="3" customFormat="1">
-      <c r="B96" s="11"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" spans="2:2" s="3" customFormat="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="2:2" s="3" customFormat="1">
-      <c r="B98" s="11"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:2" s="3" customFormat="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="8"/>
     </row>
     <row r="100" spans="2:2" s="3" customFormat="1">
-      <c r="B100" s="11"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="2:2" s="3" customFormat="1">
-      <c r="B101" s="11"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="2:2" s="3" customFormat="1">
-      <c r="B102" s="11"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="2:2" s="3" customFormat="1">
-      <c r="B103" s="11"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" spans="2:2" s="3" customFormat="1">
-      <c r="B104" s="11"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" spans="2:2" s="3" customFormat="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="2:2" s="3" customFormat="1">
-      <c r="B106" s="11"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="107" spans="2:2" s="3" customFormat="1">
-      <c r="B107" s="11"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="2:2" s="3" customFormat="1">
-      <c r="B108" s="11"/>
+      <c r="B108" s="8"/>
     </row>
     <row r="109" spans="2:2" s="3" customFormat="1">
-      <c r="B109" s="11"/>
+      <c r="B109" s="8"/>
     </row>
     <row r="110" spans="2:2" s="3" customFormat="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="2:2" s="3" customFormat="1">
-      <c r="B111" s="11"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="2:2" s="3" customFormat="1">
-      <c r="B112" s="11"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="2:2" s="3" customFormat="1">
-      <c r="B113" s="11"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="2:2" s="3" customFormat="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="2:2" s="3" customFormat="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:2" s="3" customFormat="1">
-      <c r="B116" s="11"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="2:2" s="3" customFormat="1">
-      <c r="B117" s="11"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" spans="2:2" s="3" customFormat="1">
-      <c r="B118" s="11"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" spans="2:2" s="3" customFormat="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="2:2" s="3" customFormat="1">
-      <c r="B120" s="11"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="2:2" s="3" customFormat="1">
-      <c r="B121" s="11"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="2:2" s="3" customFormat="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="2:2" s="3" customFormat="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="8"/>
     </row>
     <row r="124" spans="2:2" s="3" customFormat="1">
-      <c r="B124" s="11"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="2:2" s="3" customFormat="1">
-      <c r="B125" s="11"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="2:2" s="3" customFormat="1">
-      <c r="B126" s="11"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" spans="2:2" s="3" customFormat="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" spans="2:2" s="3" customFormat="1">
-      <c r="B128" s="11"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" spans="2:2" s="3" customFormat="1">
-      <c r="B129" s="11"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="2:2" s="3" customFormat="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="2:2" s="3" customFormat="1">
-      <c r="B131" s="11"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="2:2" s="3" customFormat="1">
-      <c r="B132" s="11"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="2:2" s="3" customFormat="1">
-      <c r="B133" s="11"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="2:2" s="3" customFormat="1">
-      <c r="B134" s="11"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="2:2" s="3" customFormat="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:2" s="3" customFormat="1">
-      <c r="B136" s="11"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" spans="2:2" s="3" customFormat="1">
-      <c r="B137" s="11"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" spans="2:2" s="3" customFormat="1">
-      <c r="B138" s="11"/>
+      <c r="B138" s="8"/>
     </row>
     <row r="139" spans="2:2" s="3" customFormat="1">
-      <c r="B139" s="11"/>
+      <c r="B139" s="8"/>
     </row>
     <row r="140" spans="2:2" s="3" customFormat="1">
-      <c r="B140" s="11"/>
+      <c r="B140" s="8"/>
     </row>
     <row r="141" spans="2:2" s="3" customFormat="1">
-      <c r="B141" s="11"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" spans="2:2" s="3" customFormat="1">
-      <c r="B142" s="11"/>
+      <c r="B142" s="8"/>
     </row>
     <row r="143" spans="2:2" s="3" customFormat="1">
-      <c r="B143" s="11"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" spans="2:2" s="3" customFormat="1">
-      <c r="B144" s="11"/>
+      <c r="B144" s="8"/>
     </row>
     <row r="145" spans="2:2" s="3" customFormat="1">
-      <c r="B145" s="11"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" spans="2:2" s="3" customFormat="1">
-      <c r="B146" s="11"/>
+      <c r="B146" s="8"/>
     </row>
     <row r="147" spans="2:2" s="3" customFormat="1">
-      <c r="B147" s="11"/>
+      <c r="B147" s="8"/>
     </row>
     <row r="148" spans="2:2" s="3" customFormat="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="8"/>
     </row>
     <row r="149" spans="2:2" s="3" customFormat="1">
-      <c r="B149" s="11"/>
+      <c r="B149" s="8"/>
     </row>
     <row r="150" spans="2:2" s="3" customFormat="1">
-      <c r="B150" s="11"/>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" spans="2:2" s="3" customFormat="1">
-      <c r="B151" s="11"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="2:2" s="3" customFormat="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:2" s="3" customFormat="1">
-      <c r="B153" s="11"/>
+      <c r="B153" s="8"/>
     </row>
     <row r="154" spans="2:2" s="3" customFormat="1">
-      <c r="B154" s="11"/>
+      <c r="B154" s="8"/>
     </row>
     <row r="155" spans="2:2" s="3" customFormat="1">
-      <c r="B155" s="11"/>
+      <c r="B155" s="8"/>
     </row>
     <row r="156" spans="2:2" s="3" customFormat="1">
-      <c r="B156" s="11"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="2:2" s="3" customFormat="1">
-      <c r="B157" s="11"/>
+      <c r="B157" s="8"/>
     </row>
     <row r="158" spans="2:2" s="3" customFormat="1">
-      <c r="B158" s="11"/>
+      <c r="B158" s="8"/>
     </row>
     <row r="159" spans="2:2" s="3" customFormat="1">
-      <c r="B159" s="11"/>
+      <c r="B159" s="8"/>
     </row>
     <row r="160" spans="2:2" s="3" customFormat="1">
-      <c r="B160" s="11"/>
+      <c r="B160" s="8"/>
     </row>
     <row r="161" spans="2:2" s="3" customFormat="1">
-      <c r="B161" s="11"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" spans="2:2" s="3" customFormat="1">
-      <c r="B162" s="11"/>
+      <c r="B162" s="8"/>
     </row>
     <row r="163" spans="2:2" s="3" customFormat="1">
-      <c r="B163" s="11"/>
+      <c r="B163" s="8"/>
     </row>
     <row r="164" spans="2:2" s="3" customFormat="1">
-      <c r="B164" s="11"/>
+      <c r="B164" s="8"/>
     </row>
     <row r="165" spans="2:2" s="3" customFormat="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="8"/>
     </row>
     <row r="166" spans="2:2" s="3" customFormat="1">
-      <c r="B166" s="11"/>
+      <c r="B166" s="8"/>
     </row>
     <row r="167" spans="2:2" s="3" customFormat="1">
-      <c r="B167" s="11"/>
+      <c r="B167" s="8"/>
     </row>
     <row r="168" spans="2:2" s="3" customFormat="1">
-      <c r="B168" s="11"/>
+      <c r="B168" s="8"/>
     </row>
     <row r="169" spans="2:2" s="3" customFormat="1">
-      <c r="B169" s="11"/>
+      <c r="B169" s="8"/>
     </row>
     <row r="170" spans="2:2" s="3" customFormat="1">
-      <c r="B170" s="11"/>
+      <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:2" s="3" customFormat="1">
-      <c r="B171" s="11"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" spans="2:2" s="3" customFormat="1">
-      <c r="B172" s="11"/>
+      <c r="B172" s="8"/>
     </row>
     <row r="173" spans="2:2" s="3" customFormat="1">
-      <c r="B173" s="11"/>
+      <c r="B173" s="8"/>
     </row>
     <row r="174" spans="2:2" s="3" customFormat="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="8"/>
     </row>
     <row r="175" spans="2:2" s="3" customFormat="1">
-      <c r="B175" s="11"/>
+      <c r="B175" s="8"/>
     </row>
     <row r="176" spans="2:2" s="3" customFormat="1">
-      <c r="B176" s="11"/>
+      <c r="B176" s="8"/>
     </row>
     <row r="177" spans="2:2" s="3" customFormat="1">
-      <c r="B177" s="11"/>
+      <c r="B177" s="8"/>
     </row>
     <row r="178" spans="2:2" s="3" customFormat="1">
-      <c r="B178" s="11"/>
+      <c r="B178" s="8"/>
     </row>
     <row r="179" spans="2:2" s="3" customFormat="1">
-      <c r="B179" s="11"/>
+      <c r="B179" s="8"/>
     </row>
     <row r="180" spans="2:2" s="3" customFormat="1">
-      <c r="B180" s="11"/>
+      <c r="B180" s="8"/>
     </row>
     <row r="181" spans="2:2" s="3" customFormat="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="8"/>
     </row>
     <row r="182" spans="2:2" s="3" customFormat="1">
-      <c r="B182" s="11"/>
+      <c r="B182" s="8"/>
     </row>
     <row r="217" ht="15.75" customHeight="1"/>
   </sheetData>
